--- a/architecture/class structure/class_structure_example.xlsx
+++ b/architecture/class structure/class_structure_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Doutorado\Defesa\Projeto\vlc_simulator\architecture\class structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C304C1-CCD2-4B0D-8152-4311281D5360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB64C6D5-D0F6-4FA1-8BCE-4A217548F331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="3825" windowWidth="13935" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animal" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>age, name</t>
-  </si>
-  <si>
     <t>speak</t>
   </si>
   <si>
@@ -122,7 +119,10 @@
     <t>Bark sound.</t>
   </si>
   <si>
-    <t>"name"</t>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>age, banana</t>
   </si>
 </sst>
 </file>
@@ -510,16 +510,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -553,10 +551,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -565,10 +563,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,10 +703,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -717,10 +715,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
@@ -739,13 +737,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
@@ -753,13 +751,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>

--- a/architecture/class structure/class_structure_example.xlsx
+++ b/architecture/class structure/class_structure_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Doutorado\Defesa\Projeto\vlc_simulator\architecture\class structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB64C6D5-D0F6-4FA1-8BCE-4A217548F331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0943073-BB0C-4C9F-A283-65077A7CF3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="2660" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animal" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -660,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B325B54B-B2B6-4AAA-8BC6-3935CF1C4FAF}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
